--- a/Data/GeoMicro/IGSN/IGSN_Key_V3.xlsx
+++ b/Data/GeoMicro/IGSN/IGSN_Key_V3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\EDaH\Data\GeoMicro\IGSN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566BE041-C650-420C-B20B-9FF3E00F927D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A760D2C8-BC22-45FB-A243-E5170B7E40A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Location_data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="664">
   <si>
     <t>var</t>
   </si>
@@ -1942,9 +1942,6 @@
     <t>emmaa@ucr.edu; yyang103@ucmerced.edu</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>V3</t>
   </si>
   <si>
@@ -2011,9 +2008,6 @@
     <t>references</t>
   </si>
   <si>
-    <t>Enzymes</t>
-  </si>
-  <si>
     <t>Unique project identifier</t>
   </si>
   <si>
@@ -2027,6 +2021,9 @@
   </si>
   <si>
     <t>m/d/yyyy</t>
+  </si>
+  <si>
+    <t>sample_info</t>
   </si>
 </sst>
 </file>
@@ -2090,6 +2087,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2514,7 +2512,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2550,7 +2548,7 @@
         <v>626</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>1</v>
@@ -2574,10 +2572,10 @@
         <v>577</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
@@ -2773,10 +2771,10 @@
     </row>
     <row r="5" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>10</v>
@@ -3222,13 +3220,13 @@
     </row>
     <row r="13" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>660</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>662</v>
       </c>
       <c r="N13" s="19"/>
       <c r="P13" s="13"/>
@@ -3250,17 +3248,17 @@
       <c r="AF13" s="13"/>
     </row>
     <row r="14" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>661</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>663</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>5</v>
@@ -3308,8 +3306,8 @@
       <c r="AF14" s="13"/>
     </row>
     <row r="15" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>636</v>
+      <c r="A15" s="7" t="s">
+        <v>663</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>2</v>
@@ -3958,7 +3956,7 @@
     </row>
     <row r="27" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>592</v>
@@ -4013,10 +4011,10 @@
     </row>
     <row r="28" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>638</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>639</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>29</v>
@@ -12563,37 +12561,36 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AG1008"/>
+  <dimension ref="A1:AF1008"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="78.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="153.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="6"/>
-    <col min="13" max="13" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.33203125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="6"/>
-    <col min="18" max="30" width="7.6640625" style="15" customWidth="1"/>
-    <col min="31" max="32" width="12.6640625" style="15"/>
-    <col min="33" max="16384" width="12.6640625" style="6"/>
+    <col min="3" max="3" width="78.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="153.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="6"/>
+    <col min="12" max="12" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.33203125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="6"/>
+    <col min="17" max="29" width="7.6640625" style="15" customWidth="1"/>
+    <col min="30" max="31" width="12.6640625" style="15"/>
+    <col min="32" max="16384" width="12.6640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>130</v>
       </c>
@@ -12601,50 +12598,48 @@
         <v>264</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>204</v>
+        <v>625</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>625</v>
+        <v>0</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>0</v>
+        <v>626</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>627</v>
+        <v>133</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>135</v>
+        <v>653</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>654</v>
+        <v>574</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>575</v>
+        <v>656</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>652</v>
+        <v>576</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="Q1" s="9" t="s">
         <v>577</v>
       </c>
+      <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
       <c r="S1" s="14"/>
       <c r="T1" s="14"/>
@@ -12657,251 +12652,251 @@
       <c r="AA1" s="14"/>
       <c r="AB1" s="14"/>
       <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-    </row>
-    <row r="2" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>522</v>
       </c>
+      <c r="C2" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="D2" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="O2" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="N2" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C3" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="D3" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="O3" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="N3" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C4" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D4" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F4" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="O4" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="N4" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C5" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="D5" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="O5" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="N5" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C6" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="D6" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="F6" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="O6" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="N6" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C7" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="D7" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F7" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="O7" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="N7" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C8" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="D8" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="F8" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="O8" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="N8" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C9" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="D9" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="F9" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="O9" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="N9" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C10" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="D10" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F10" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="O10" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="N10" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C11" s="6" t="s">
+        <v>157</v>
+      </c>
       <c r="D11" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="F11" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="O11" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="N11" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C12" s="6" t="s">
+        <v>159</v>
+      </c>
       <c r="D12" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="F12" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="O12" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="N12" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C13" s="6" t="s">
+        <v>161</v>
+      </c>
       <c r="D13" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="F13" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="O13" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="N13" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C14" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="D14" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="G14" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H14" s="6" t="s">
-        <v>165</v>
+        <v>2</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="K14" s="6" t="s">
         <v>2</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O14" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
+      <c r="V14" s="12"/>
       <c r="W14" s="12"/>
       <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
@@ -12912,47 +12907,47 @@
       <c r="AD14" s="12"/>
       <c r="AE14" s="12"/>
       <c r="AF14" s="12"/>
-      <c r="AG14" s="12"/>
-    </row>
-    <row r="15" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="C15" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="D15" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="G15" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H15" s="6" t="s">
-        <v>165</v>
+        <v>2</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="K15" s="6" t="s">
         <v>2</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O15" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N15" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
+      <c r="V15" s="13"/>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
@@ -12963,44 +12958,44 @@
       <c r="AD15" s="13"/>
       <c r="AE15" s="13"/>
       <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-    </row>
-    <row r="16" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="C16" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="D16" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="G16" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="H16" s="6" t="s">
-        <v>170</v>
+        <v>2</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>2</v>
+      <c r="K16" s="6">
+        <v>-90</v>
       </c>
       <c r="L16" s="6">
-        <v>-90</v>
-      </c>
-      <c r="M16" s="6">
         <v>90</v>
       </c>
-      <c r="O16" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
+      <c r="V16" s="13"/>
       <c r="W16" s="13"/>
       <c r="X16" s="13"/>
       <c r="Y16" s="13"/>
@@ -13011,44 +13006,44 @@
       <c r="AD16" s="13"/>
       <c r="AE16" s="13"/>
       <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-    </row>
-    <row r="17" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>36</v>
       </c>
+      <c r="C17" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="D17" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="G17" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="H17" s="6" t="s">
-        <v>170</v>
+        <v>2</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>2</v>
+      <c r="K17" s="6">
+        <v>-180</v>
       </c>
       <c r="L17" s="6">
-        <v>-180</v>
-      </c>
-      <c r="M17" s="6">
         <v>180</v>
       </c>
-      <c r="O17" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
+      <c r="V17" s="13"/>
       <c r="W17" s="13"/>
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
@@ -13059,29 +13054,29 @@
       <c r="AD17" s="13"/>
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
-      <c r="AG17" s="13"/>
-    </row>
-    <row r="18" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>640</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="F18" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="O18" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
+      <c r="V18" s="13"/>
       <c r="W18" s="13"/>
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
@@ -13092,26 +13087,26 @@
       <c r="AD18" s="13"/>
       <c r="AE18" s="13"/>
       <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-    </row>
-    <row r="19" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C19" s="6" t="s">
+        <v>641</v>
+      </c>
       <c r="D19" s="6" t="s">
         <v>642</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>643</v>
-      </c>
-      <c r="F19" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="O19" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
+      <c r="V19" s="13"/>
       <c r="W19" s="13"/>
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
@@ -13122,33 +13117,33 @@
       <c r="AD19" s="13"/>
       <c r="AE19" s="13"/>
       <c r="AF19" s="13"/>
-      <c r="AG19" s="13"/>
-    </row>
-    <row r="20" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>66</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="G20" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H20" s="6" t="s">
-        <v>165</v>
+        <v>2</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J20" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O20" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" s="13"/>
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
       <c r="R20" s="13"/>
@@ -13166,47 +13161,47 @@
       <c r="AD20" s="13"/>
       <c r="AE20" s="13"/>
       <c r="AF20" s="13"/>
-      <c r="AG20" s="13"/>
-    </row>
-    <row r="21" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="C21" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="D21" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="G21" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="H21" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J21" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="K21" s="6">
+        <v>-500</v>
+      </c>
       <c r="L21" s="6">
-        <v>-500</v>
-      </c>
-      <c r="M21" s="6">
         <v>5000</v>
       </c>
-      <c r="O21" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
+      <c r="V21" s="13"/>
       <c r="W21" s="13"/>
       <c r="X21" s="13"/>
       <c r="Y21" s="13"/>
@@ -13217,175 +13212,175 @@
       <c r="AD21" s="13"/>
       <c r="AE21" s="13"/>
       <c r="AF21" s="13"/>
-      <c r="AG21" s="13"/>
-    </row>
-    <row r="22" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>648</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O22" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O23" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>649</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>97</v>
       </c>
+      <c r="C24" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="D24" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="F24" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="G24" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="I24" s="6" t="s">
         <v>97</v>
       </c>
+      <c r="K24" s="6">
+        <v>-10</v>
+      </c>
       <c r="L24" s="6">
-        <v>-10</v>
-      </c>
-      <c r="M24" s="6">
         <v>400</v>
       </c>
-      <c r="O24" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N24" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>97</v>
       </c>
+      <c r="C25" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="D25" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="F25" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="I25" s="6" t="s">
         <v>97</v>
       </c>
+      <c r="K25" s="6">
+        <v>-1</v>
+      </c>
       <c r="L25" s="6">
-        <v>-1</v>
-      </c>
-      <c r="M25" s="6">
         <v>500</v>
       </c>
-      <c r="O25" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="N25" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C26" s="6" t="s">
+        <v>168</v>
+      </c>
       <c r="D26" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="F26" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G26" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="H26" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0</v>
+      </c>
+      <c r="L26" s="6">
+        <v>100</v>
+      </c>
+      <c r="N26" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C27" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="H27" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="I27" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="L26" s="6">
-        <v>0</v>
-      </c>
-      <c r="M26" s="6">
+      <c r="K27" s="6">
+        <v>0</v>
+      </c>
+      <c r="L27" s="6">
         <v>100</v>
       </c>
-      <c r="O26" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="D27" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="L27" s="6">
-        <v>0</v>
-      </c>
-      <c r="M27" s="6">
-        <v>100</v>
-      </c>
-      <c r="O27" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N27" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="14"/>
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
@@ -13398,37 +13393,37 @@
       <c r="AA27" s="14"/>
       <c r="AB27" s="14"/>
       <c r="AC27" s="14"/>
-      <c r="AD27" s="14"/>
-    </row>
-    <row r="28" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C28" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="D28" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F28" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G28" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="H28" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J28" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="L28" s="6">
-        <v>0</v>
-      </c>
-      <c r="M28" s="10">
+      <c r="K28" s="6">
+        <v>0</v>
+      </c>
+      <c r="L28" s="10">
         <v>1000000</v>
       </c>
-      <c r="N28" s="10"/>
-      <c r="O28" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="M28" s="10"/>
+      <c r="N28" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="14"/>
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
@@ -13441,1200 +13436,1199 @@
       <c r="AA28" s="14"/>
       <c r="AB28" s="14"/>
       <c r="AC28" s="14"/>
-      <c r="AD28" s="14"/>
-    </row>
-    <row r="29" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C29" s="6" t="s">
+        <v>177</v>
+      </c>
       <c r="D29" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F29" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G29" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="H29" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K29" s="6">
+        <v>0</v>
+      </c>
+      <c r="L29" s="6">
+        <v>100</v>
+      </c>
+      <c r="N29" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C30" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K30" s="6">
+        <v>0</v>
+      </c>
+      <c r="L30" s="6">
+        <v>100</v>
+      </c>
+      <c r="N30" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="H31" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="I31" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="L29" s="6">
-        <v>0</v>
-      </c>
-      <c r="M29" s="6">
+      <c r="K31" s="6">
+        <v>0</v>
+      </c>
+      <c r="L31" s="6">
         <v>100</v>
       </c>
-      <c r="O29" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="D30" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="F30" s="6" t="s">
+      <c r="N31" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="L30" s="6">
-        <v>0</v>
-      </c>
-      <c r="M30" s="6">
+      <c r="G32" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K32" s="6">
+        <v>0</v>
+      </c>
+      <c r="L32" s="10">
+        <v>100000</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c r="N32" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="K33" s="6">
+        <v>0</v>
+      </c>
+      <c r="L33" s="6">
         <v>100</v>
       </c>
-      <c r="O30" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="F31" s="6" t="s">
+      <c r="N33" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="G34" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="H34" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="I34" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="K34" s="6">
+        <v>-30</v>
+      </c>
+      <c r="L34" s="6">
+        <v>30</v>
+      </c>
+      <c r="N34" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="K35" s="6">
+        <v>-40</v>
+      </c>
+      <c r="L35" s="6">
+        <v>0</v>
+      </c>
+      <c r="N35" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="N36" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="K37" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="L37" s="6">
+        <v>2</v>
+      </c>
+      <c r="N37" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="K38" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="L38" s="6">
+        <v>2</v>
+      </c>
+      <c r="N38" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="N39" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="K40" s="6">
+        <v>0</v>
+      </c>
+      <c r="L40" s="6">
+        <v>14</v>
+      </c>
+      <c r="N40" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="K41" s="6">
+        <v>0</v>
+      </c>
+      <c r="L41" s="6">
+        <v>14</v>
+      </c>
+      <c r="N41" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="K42" s="6">
+        <v>0</v>
+      </c>
+      <c r="L42" s="6">
+        <v>14</v>
+      </c>
+      <c r="N42" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I43" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="L31" s="6">
-        <v>0</v>
-      </c>
-      <c r="M31" s="6">
+      <c r="K43" s="6">
+        <v>0</v>
+      </c>
+      <c r="L43" s="6">
         <v>100</v>
       </c>
-      <c r="O31" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="F32" s="6" t="s">
+      <c r="N43" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="G44" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="H44" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="I44" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="L32" s="6">
-        <v>0</v>
-      </c>
-      <c r="M32" s="10">
+      <c r="K44" s="6">
+        <v>0</v>
+      </c>
+      <c r="L44" s="6">
+        <v>100</v>
+      </c>
+      <c r="N44" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K45" s="6">
+        <v>0</v>
+      </c>
+      <c r="L45" s="6">
+        <v>100</v>
+      </c>
+      <c r="N45" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K46" s="6">
+        <v>0</v>
+      </c>
+      <c r="L46" s="6">
+        <v>100</v>
+      </c>
+      <c r="N46" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="K47" s="6">
+        <v>0</v>
+      </c>
+      <c r="L47" s="6">
+        <v>10</v>
+      </c>
+      <c r="N47" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="N48" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="N49" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K50" s="6">
+        <v>0</v>
+      </c>
+      <c r="L50" s="6">
+        <v>100</v>
+      </c>
+      <c r="N50" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="K51" s="6">
+        <v>0</v>
+      </c>
+      <c r="L51" s="6">
+        <v>200</v>
+      </c>
+      <c r="N51" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="K52" s="6">
+        <v>0</v>
+      </c>
+      <c r="L52" s="6">
+        <v>500</v>
+      </c>
+      <c r="N52" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="K53" s="6">
+        <v>0</v>
+      </c>
+      <c r="L53" s="6">
+        <v>500</v>
+      </c>
+      <c r="N53" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="K54" s="6">
+        <v>0</v>
+      </c>
+      <c r="L54" s="6">
+        <v>200</v>
+      </c>
+      <c r="N54" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K55" s="6">
+        <v>0</v>
+      </c>
+      <c r="L55" s="6">
+        <v>100</v>
+      </c>
+      <c r="N55" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="K56" s="6">
+        <v>0</v>
+      </c>
+      <c r="L56" s="6">
+        <v>100</v>
+      </c>
+      <c r="N56" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="K57" s="6">
+        <v>0</v>
+      </c>
+      <c r="L57" s="6">
+        <v>100</v>
+      </c>
+      <c r="N57" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="K58" s="6">
+        <v>0</v>
+      </c>
+      <c r="L58" s="6">
+        <v>33</v>
+      </c>
+      <c r="N58" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="K59" s="6">
+        <v>0</v>
+      </c>
+      <c r="L59" s="6">
+        <v>33</v>
+      </c>
+      <c r="N59" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="K60" s="6">
+        <v>0</v>
+      </c>
+      <c r="L60" s="6">
+        <v>10</v>
+      </c>
+      <c r="N60" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="K61" s="6">
+        <v>0</v>
+      </c>
+      <c r="L61" s="6">
+        <v>10</v>
+      </c>
+      <c r="N61" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K62" s="6">
+        <v>0</v>
+      </c>
+      <c r="L62" s="6">
+        <v>50</v>
+      </c>
+      <c r="N62" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K63" s="6">
+        <v>0</v>
+      </c>
+      <c r="L63" s="6">
+        <v>500</v>
+      </c>
+      <c r="N63" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K64" s="6">
+        <v>0</v>
+      </c>
+      <c r="L64" s="6">
+        <v>50</v>
+      </c>
+      <c r="N64" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="N65" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="N66" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="N67" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="N68" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K69" s="6">
+        <v>0</v>
+      </c>
+      <c r="L69" s="6">
+        <v>1000</v>
+      </c>
+      <c r="N69" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="N70" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="N71" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="K72" s="6">
+        <v>0</v>
+      </c>
+      <c r="L72" s="11">
         <v>100000</v>
       </c>
-      <c r="N32" s="10"/>
-      <c r="O32" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F33" s="6" t="s">
+      <c r="M72" s="11"/>
+      <c r="N72" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="K73" s="6">
+        <v>0</v>
+      </c>
+      <c r="L73" s="11">
+        <v>100000</v>
+      </c>
+      <c r="M73" s="11"/>
+      <c r="N73" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="N74" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="N75" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E76" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="G76" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="H76" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="J33" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="L33" s="6">
-        <v>0</v>
-      </c>
-      <c r="M33" s="6">
-        <v>100</v>
-      </c>
-      <c r="O33" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="L34" s="6">
-        <v>-30</v>
-      </c>
-      <c r="M34" s="6">
-        <v>30</v>
-      </c>
-      <c r="O34" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="L35" s="6">
-        <v>-40</v>
-      </c>
-      <c r="M35" s="6">
-        <v>0</v>
-      </c>
-      <c r="O35" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="O36" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="L37" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="M37" s="6">
-        <v>2</v>
-      </c>
-      <c r="O37" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="L38" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="M38" s="6">
-        <v>2</v>
-      </c>
-      <c r="O38" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="O39" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="L40" s="6">
-        <v>0</v>
-      </c>
-      <c r="M40" s="6">
-        <v>14</v>
-      </c>
-      <c r="O40" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="L41" s="6">
-        <v>0</v>
-      </c>
-      <c r="M41" s="6">
-        <v>14</v>
-      </c>
-      <c r="O41" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="L42" s="6">
-        <v>0</v>
-      </c>
-      <c r="M42" s="6">
-        <v>14</v>
-      </c>
-      <c r="O42" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="L43" s="6">
-        <v>0</v>
-      </c>
-      <c r="M43" s="6">
-        <v>100</v>
-      </c>
-      <c r="O43" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D44" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="L44" s="6">
-        <v>0</v>
-      </c>
-      <c r="M44" s="6">
-        <v>100</v>
-      </c>
-      <c r="O44" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D45" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="L45" s="6">
-        <v>0</v>
-      </c>
-      <c r="M45" s="6">
-        <v>100</v>
-      </c>
-      <c r="O45" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="L46" s="6">
-        <v>0</v>
-      </c>
-      <c r="M46" s="6">
-        <v>100</v>
-      </c>
-      <c r="O46" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="L47" s="6">
-        <v>0</v>
-      </c>
-      <c r="M47" s="6">
-        <v>10</v>
-      </c>
-      <c r="O47" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="O48" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D49" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="O49" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="L50" s="6">
-        <v>0</v>
-      </c>
-      <c r="M50" s="6">
-        <v>100</v>
-      </c>
-      <c r="O50" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D51" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="L51" s="6">
-        <v>0</v>
-      </c>
-      <c r="M51" s="6">
-        <v>200</v>
-      </c>
-      <c r="O51" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="L52" s="6">
-        <v>0</v>
-      </c>
-      <c r="M52" s="6">
-        <v>500</v>
-      </c>
-      <c r="O52" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D53" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="L53" s="6">
-        <v>0</v>
-      </c>
-      <c r="M53" s="6">
-        <v>500</v>
-      </c>
-      <c r="O53" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D54" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="L54" s="6">
-        <v>0</v>
-      </c>
-      <c r="M54" s="6">
-        <v>200</v>
-      </c>
-      <c r="O54" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D55" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="L55" s="6">
-        <v>0</v>
-      </c>
-      <c r="M55" s="6">
-        <v>100</v>
-      </c>
-      <c r="O55" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D56" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="L56" s="6">
-        <v>0</v>
-      </c>
-      <c r="M56" s="6">
-        <v>100</v>
-      </c>
-      <c r="O56" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D57" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J57" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="L57" s="6">
-        <v>0</v>
-      </c>
-      <c r="M57" s="6">
-        <v>100</v>
-      </c>
-      <c r="O57" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D58" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="L58" s="6">
-        <v>0</v>
-      </c>
-      <c r="M58" s="6">
-        <v>33</v>
-      </c>
-      <c r="O58" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D59" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J59" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="L59" s="6">
-        <v>0</v>
-      </c>
-      <c r="M59" s="6">
-        <v>33</v>
-      </c>
-      <c r="O59" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D60" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="L60" s="6">
-        <v>0</v>
-      </c>
-      <c r="M60" s="6">
-        <v>10</v>
-      </c>
-      <c r="O60" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D61" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="L61" s="6">
-        <v>0</v>
-      </c>
-      <c r="M61" s="6">
-        <v>10</v>
-      </c>
-      <c r="O61" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D62" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="L62" s="6">
-        <v>0</v>
-      </c>
-      <c r="M62" s="6">
-        <v>50</v>
-      </c>
-      <c r="O62" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D63" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="L63" s="6">
-        <v>0</v>
-      </c>
-      <c r="M63" s="6">
-        <v>500</v>
-      </c>
-      <c r="O63" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D64" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="L64" s="6">
-        <v>0</v>
-      </c>
-      <c r="M64" s="6">
-        <v>50</v>
-      </c>
-      <c r="O64" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="O65" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="O66" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D67" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="O67" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D68" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="O68" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D69" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="L69" s="6">
-        <v>0</v>
-      </c>
-      <c r="M69" s="6">
+      <c r="I76" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="K76" s="6">
+        <v>0</v>
+      </c>
+      <c r="L76" s="6">
         <v>1000</v>
       </c>
-      <c r="O69" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D70" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="O70" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D71" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="O71" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D72" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="J72" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="L72" s="6">
-        <v>0</v>
-      </c>
-      <c r="M72" s="11">
-        <v>100000</v>
-      </c>
-      <c r="N72" s="11"/>
-      <c r="O72" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D73" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="J73" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="L73" s="6">
-        <v>0</v>
-      </c>
-      <c r="M73" s="11">
-        <v>100000</v>
-      </c>
-      <c r="N73" s="11"/>
-      <c r="O73" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D74" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="O74" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D75" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="O75" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D76" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I76" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J76" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="L76" s="6">
-        <v>0</v>
-      </c>
-      <c r="M76" s="6">
-        <v>1000</v>
-      </c>
-      <c r="O76" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N76" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="16"/>
       <c r="R76" s="16"/>
       <c r="S76" s="16"/>
       <c r="T76" s="16"/>
@@ -14647,36 +14641,36 @@
       <c r="AA76" s="16"/>
       <c r="AB76" s="16"/>
       <c r="AC76" s="16"/>
-      <c r="AD76" s="16"/>
-    </row>
-    <row r="77" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="6" t="s">
+        <v>283</v>
+      </c>
       <c r="D77" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="F77" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G77" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="H77" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J77" s="6" t="s">
         <v>282</v>
       </c>
+      <c r="K77" s="6">
+        <v>0</v>
+      </c>
       <c r="L77" s="6">
-        <v>0</v>
-      </c>
-      <c r="M77" s="6">
         <v>1000</v>
       </c>
-      <c r="O77" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N77" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="16"/>
       <c r="R77" s="16"/>
       <c r="S77" s="16"/>
       <c r="T77" s="16"/>
@@ -14689,36 +14683,36 @@
       <c r="AA77" s="16"/>
       <c r="AB77" s="16"/>
       <c r="AC77" s="16"/>
-      <c r="AD77" s="16"/>
-    </row>
-    <row r="78" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C78" s="6" t="s">
+        <v>285</v>
+      </c>
       <c r="D78" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F78" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G78" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="H78" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J78" s="6" t="s">
         <v>282</v>
       </c>
+      <c r="K78" s="6">
+        <v>0</v>
+      </c>
       <c r="L78" s="6">
-        <v>0</v>
-      </c>
-      <c r="M78" s="6">
         <v>1000</v>
       </c>
-      <c r="O78" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N78" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="16"/>
       <c r="R78" s="16"/>
       <c r="S78" s="16"/>
       <c r="T78" s="16"/>
@@ -14731,27 +14725,27 @@
       <c r="AA78" s="16"/>
       <c r="AB78" s="16"/>
       <c r="AC78" s="16"/>
-      <c r="AD78" s="16"/>
-    </row>
-    <row r="79" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="6" t="s">
+        <v>287</v>
+      </c>
       <c r="D79" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="F79" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G79" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H79" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I79" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="O79" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N79" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="16"/>
       <c r="R79" s="16"/>
       <c r="S79" s="16"/>
       <c r="T79" s="16"/>
@@ -14764,36 +14758,36 @@
       <c r="AA79" s="16"/>
       <c r="AB79" s="16"/>
       <c r="AC79" s="16"/>
-      <c r="AD79" s="16"/>
-    </row>
-    <row r="80" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="6" t="s">
+        <v>289</v>
+      </c>
       <c r="D80" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="F80" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G80" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="H80" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J80" s="6" t="s">
         <v>282</v>
       </c>
+      <c r="K80" s="6">
+        <v>0</v>
+      </c>
       <c r="L80" s="6">
-        <v>0</v>
-      </c>
-      <c r="M80" s="6">
         <v>1000</v>
       </c>
-      <c r="O80" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N80" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="16"/>
       <c r="R80" s="16"/>
       <c r="S80" s="16"/>
       <c r="T80" s="16"/>
@@ -14806,36 +14800,36 @@
       <c r="AA80" s="16"/>
       <c r="AB80" s="16"/>
       <c r="AC80" s="16"/>
-      <c r="AD80" s="16"/>
-    </row>
-    <row r="81" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="6" t="s">
+        <v>291</v>
+      </c>
       <c r="D81" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="F81" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G81" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="H81" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J81" s="6" t="s">
         <v>282</v>
       </c>
+      <c r="K81" s="6">
+        <v>0</v>
+      </c>
       <c r="L81" s="6">
-        <v>0</v>
-      </c>
-      <c r="M81" s="6">
         <v>1000</v>
       </c>
-      <c r="O81" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N81" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="16"/>
       <c r="R81" s="16"/>
       <c r="S81" s="16"/>
       <c r="T81" s="16"/>
@@ -14848,36 +14842,36 @@
       <c r="AA81" s="16"/>
       <c r="AB81" s="16"/>
       <c r="AC81" s="16"/>
-      <c r="AD81" s="16"/>
-    </row>
-    <row r="82" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C82" s="6" t="s">
+        <v>293</v>
+      </c>
       <c r="D82" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="F82" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G82" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="H82" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J82" s="6" t="s">
         <v>282</v>
       </c>
+      <c r="K82" s="6">
+        <v>0</v>
+      </c>
       <c r="L82" s="6">
-        <v>0</v>
-      </c>
-      <c r="M82" s="6">
         <v>1000</v>
       </c>
-      <c r="O82" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N82" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="16"/>
       <c r="R82" s="16"/>
       <c r="S82" s="16"/>
       <c r="T82" s="16"/>
@@ -14890,27 +14884,27 @@
       <c r="AA82" s="16"/>
       <c r="AB82" s="16"/>
       <c r="AC82" s="16"/>
-      <c r="AD82" s="16"/>
-    </row>
-    <row r="83" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C83" s="6" t="s">
+        <v>295</v>
+      </c>
       <c r="D83" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="F83" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G83" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H83" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I83" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="O83" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N83" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="16"/>
       <c r="R83" s="16"/>
       <c r="S83" s="16"/>
       <c r="T83" s="16"/>
@@ -14923,36 +14917,36 @@
       <c r="AA83" s="16"/>
       <c r="AB83" s="16"/>
       <c r="AC83" s="16"/>
-      <c r="AD83" s="16"/>
-    </row>
-    <row r="84" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C84" s="6" t="s">
+        <v>297</v>
+      </c>
       <c r="D84" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="F84" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G84" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="H84" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J84" s="6" t="s">
         <v>282</v>
       </c>
+      <c r="K84" s="6">
+        <v>0</v>
+      </c>
       <c r="L84" s="6">
-        <v>0</v>
-      </c>
-      <c r="M84" s="6">
         <v>1000</v>
       </c>
-      <c r="O84" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N84" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="16"/>
       <c r="R84" s="16"/>
       <c r="S84" s="16"/>
       <c r="T84" s="16"/>
@@ -14965,36 +14959,36 @@
       <c r="AA84" s="16"/>
       <c r="AB84" s="16"/>
       <c r="AC84" s="16"/>
-      <c r="AD84" s="16"/>
-    </row>
-    <row r="85" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="6" t="s">
+        <v>299</v>
+      </c>
       <c r="D85" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="F85" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G85" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="H85" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J85" s="6" t="s">
         <v>282</v>
       </c>
+      <c r="K85" s="6">
+        <v>0</v>
+      </c>
       <c r="L85" s="6">
-        <v>0</v>
-      </c>
-      <c r="M85" s="6">
         <v>1000</v>
       </c>
-      <c r="O85" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N85" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="16"/>
       <c r="R85" s="16"/>
       <c r="S85" s="16"/>
       <c r="T85" s="16"/>
@@ -15007,36 +15001,36 @@
       <c r="AA85" s="16"/>
       <c r="AB85" s="16"/>
       <c r="AC85" s="16"/>
-      <c r="AD85" s="16"/>
-    </row>
-    <row r="86" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C86" s="6" t="s">
+        <v>301</v>
+      </c>
       <c r="D86" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="F86" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G86" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="H86" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J86" s="6" t="s">
         <v>282</v>
       </c>
+      <c r="K86" s="6">
+        <v>0</v>
+      </c>
       <c r="L86" s="6">
-        <v>0</v>
-      </c>
-      <c r="M86" s="6">
         <v>1000</v>
       </c>
-      <c r="O86" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N86" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="16"/>
       <c r="R86" s="16"/>
       <c r="S86" s="16"/>
       <c r="T86" s="16"/>
@@ -15049,36 +15043,36 @@
       <c r="AA86" s="16"/>
       <c r="AB86" s="16"/>
       <c r="AC86" s="16"/>
-      <c r="AD86" s="16"/>
-    </row>
-    <row r="87" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C87" s="6" t="s">
+        <v>303</v>
+      </c>
       <c r="D87" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="F87" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G87" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="H87" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J87" s="6" t="s">
         <v>282</v>
       </c>
+      <c r="K87" s="6">
+        <v>0</v>
+      </c>
       <c r="L87" s="6">
-        <v>0</v>
-      </c>
-      <c r="M87" s="6">
         <v>1000</v>
       </c>
-      <c r="O87" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N87" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="16"/>
       <c r="R87" s="16"/>
       <c r="S87" s="16"/>
       <c r="T87" s="16"/>
@@ -15091,30 +15085,30 @@
       <c r="AA87" s="16"/>
       <c r="AB87" s="16"/>
       <c r="AC87" s="16"/>
-      <c r="AD87" s="16"/>
-    </row>
-    <row r="88" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C88" s="6" t="s">
+        <v>305</v>
+      </c>
       <c r="D88" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="F88" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G88" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H88" s="6" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="J88" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="O88" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N88" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="16"/>
       <c r="R88" s="16"/>
       <c r="S88" s="16"/>
       <c r="T88" s="16"/>
@@ -15127,36 +15121,36 @@
       <c r="AA88" s="16"/>
       <c r="AB88" s="16"/>
       <c r="AC88" s="16"/>
-      <c r="AD88" s="16"/>
-    </row>
-    <row r="89" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C89" s="6" t="s">
+        <v>307</v>
+      </c>
       <c r="D89" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="F89" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G89" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="H89" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J89" s="6" t="s">
         <v>282</v>
       </c>
+      <c r="K89" s="6">
+        <v>0</v>
+      </c>
       <c r="L89" s="6">
-        <v>0</v>
-      </c>
-      <c r="M89" s="6">
         <v>1000</v>
       </c>
-      <c r="O89" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N89" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="16"/>
       <c r="R89" s="16"/>
       <c r="S89" s="16"/>
       <c r="T89" s="16"/>
@@ -15169,36 +15163,36 @@
       <c r="AA89" s="16"/>
       <c r="AB89" s="16"/>
       <c r="AC89" s="16"/>
-      <c r="AD89" s="16"/>
-    </row>
-    <row r="90" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C90" s="6" t="s">
+        <v>309</v>
+      </c>
       <c r="D90" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="F90" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G90" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="H90" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J90" s="6" t="s">
         <v>282</v>
       </c>
+      <c r="K90" s="6">
+        <v>0</v>
+      </c>
       <c r="L90" s="6">
-        <v>0</v>
-      </c>
-      <c r="M90" s="6">
         <v>1000</v>
       </c>
-      <c r="O90" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N90" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="16"/>
       <c r="R90" s="16"/>
       <c r="S90" s="16"/>
       <c r="T90" s="16"/>
@@ -15211,36 +15205,36 @@
       <c r="AA90" s="16"/>
       <c r="AB90" s="16"/>
       <c r="AC90" s="16"/>
-      <c r="AD90" s="16"/>
-    </row>
-    <row r="91" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C91" s="6" t="s">
+        <v>311</v>
+      </c>
       <c r="D91" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="F91" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G91" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="H91" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J91" s="6" t="s">
         <v>282</v>
       </c>
+      <c r="K91" s="6">
+        <v>0</v>
+      </c>
       <c r="L91" s="6">
-        <v>0</v>
-      </c>
-      <c r="M91" s="6">
         <v>1000</v>
       </c>
-      <c r="O91" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N91" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="16"/>
       <c r="R91" s="16"/>
       <c r="S91" s="16"/>
       <c r="T91" s="16"/>
@@ -15253,33 +15247,33 @@
       <c r="AA91" s="16"/>
       <c r="AB91" s="16"/>
       <c r="AC91" s="16"/>
-      <c r="AD91" s="16"/>
-    </row>
-    <row r="92" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C92" s="6" t="s">
+        <v>313</v>
+      </c>
       <c r="D92" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="F92" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G92" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H92" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I92" s="6" t="s">
         <v>204</v>
       </c>
+      <c r="K92" s="6">
+        <v>0</v>
+      </c>
       <c r="L92" s="6">
-        <v>0</v>
-      </c>
-      <c r="M92" s="6">
         <v>1000</v>
       </c>
-      <c r="O92" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N92" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="16"/>
       <c r="R92" s="16"/>
       <c r="S92" s="16"/>
       <c r="T92" s="16"/>
@@ -15292,36 +15286,36 @@
       <c r="AA92" s="16"/>
       <c r="AB92" s="16"/>
       <c r="AC92" s="16"/>
-      <c r="AD92" s="16"/>
-    </row>
-    <row r="93" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C93" s="6" t="s">
+        <v>315</v>
+      </c>
       <c r="D93" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="F93" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G93" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H93" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J93" s="6" t="s">
         <v>317</v>
       </c>
+      <c r="K93" s="6">
+        <v>0</v>
+      </c>
       <c r="L93" s="6">
-        <v>0</v>
-      </c>
-      <c r="M93" s="6">
         <v>100</v>
       </c>
-      <c r="O93" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N93" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="16"/>
       <c r="R93" s="16"/>
       <c r="S93" s="16"/>
       <c r="T93" s="16"/>
@@ -15334,36 +15328,36 @@
       <c r="AA93" s="16"/>
       <c r="AB93" s="16"/>
       <c r="AC93" s="16"/>
-      <c r="AD93" s="16"/>
-    </row>
-    <row r="94" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C94" s="6" t="s">
+        <v>318</v>
+      </c>
       <c r="D94" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="F94" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G94" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H94" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J94" s="6" t="s">
         <v>317</v>
       </c>
+      <c r="K94" s="6">
+        <v>0</v>
+      </c>
       <c r="L94" s="6">
-        <v>0</v>
-      </c>
-      <c r="M94" s="6">
         <v>100</v>
       </c>
-      <c r="O94" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N94" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="16"/>
       <c r="R94" s="16"/>
       <c r="S94" s="16"/>
       <c r="T94" s="16"/>
@@ -15376,36 +15370,36 @@
       <c r="AA94" s="16"/>
       <c r="AB94" s="16"/>
       <c r="AC94" s="16"/>
-      <c r="AD94" s="16"/>
-    </row>
-    <row r="95" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C95" s="6" t="s">
+        <v>320</v>
+      </c>
       <c r="D95" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="F95" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G95" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H95" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J95" s="6" t="s">
         <v>317</v>
       </c>
+      <c r="K95" s="6">
+        <v>0</v>
+      </c>
       <c r="L95" s="6">
-        <v>0</v>
-      </c>
-      <c r="M95" s="6">
         <v>100</v>
       </c>
-      <c r="O95" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N95" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="16"/>
       <c r="R95" s="16"/>
       <c r="S95" s="16"/>
       <c r="T95" s="16"/>
@@ -15418,36 +15412,36 @@
       <c r="AA95" s="16"/>
       <c r="AB95" s="16"/>
       <c r="AC95" s="16"/>
-      <c r="AD95" s="16"/>
-    </row>
-    <row r="96" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C96" s="6" t="s">
+        <v>322</v>
+      </c>
       <c r="D96" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="F96" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G96" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H96" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J96" s="6" t="s">
         <v>317</v>
       </c>
+      <c r="K96" s="6">
+        <v>0</v>
+      </c>
       <c r="L96" s="6">
-        <v>0</v>
-      </c>
-      <c r="M96" s="6">
         <v>100</v>
       </c>
-      <c r="O96" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N96" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="16"/>
       <c r="R96" s="16"/>
       <c r="S96" s="16"/>
       <c r="T96" s="16"/>
@@ -15460,36 +15454,36 @@
       <c r="AA96" s="16"/>
       <c r="AB96" s="16"/>
       <c r="AC96" s="16"/>
-      <c r="AD96" s="16"/>
-    </row>
-    <row r="97" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C97" s="6" t="s">
+        <v>324</v>
+      </c>
       <c r="D97" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="F97" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G97" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H97" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J97" s="6" t="s">
         <v>317</v>
       </c>
+      <c r="K97" s="6">
+        <v>0</v>
+      </c>
       <c r="L97" s="6">
-        <v>0</v>
-      </c>
-      <c r="M97" s="6">
         <v>100</v>
       </c>
-      <c r="O97" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N97" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="16"/>
       <c r="R97" s="16"/>
       <c r="S97" s="16"/>
       <c r="T97" s="16"/>
@@ -15502,36 +15496,36 @@
       <c r="AA97" s="16"/>
       <c r="AB97" s="16"/>
       <c r="AC97" s="16"/>
-      <c r="AD97" s="16"/>
-    </row>
-    <row r="98" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C98" s="6" t="s">
+        <v>326</v>
+      </c>
       <c r="D98" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="F98" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G98" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H98" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J98" s="6" t="s">
         <v>317</v>
       </c>
+      <c r="K98" s="6">
+        <v>0</v>
+      </c>
       <c r="L98" s="6">
-        <v>0</v>
-      </c>
-      <c r="M98" s="6">
         <v>100</v>
       </c>
-      <c r="O98" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N98" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="16"/>
       <c r="R98" s="16"/>
       <c r="S98" s="16"/>
       <c r="T98" s="16"/>
@@ -15544,36 +15538,36 @@
       <c r="AA98" s="16"/>
       <c r="AB98" s="16"/>
       <c r="AC98" s="16"/>
-      <c r="AD98" s="16"/>
-    </row>
-    <row r="99" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C99" s="6" t="s">
+        <v>328</v>
+      </c>
       <c r="D99" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="F99" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G99" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H99" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J99" s="6" t="s">
         <v>317</v>
       </c>
+      <c r="K99" s="6">
+        <v>0</v>
+      </c>
       <c r="L99" s="6">
-        <v>0</v>
-      </c>
-      <c r="M99" s="6">
         <v>100</v>
       </c>
-      <c r="O99" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N99" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="16"/>
       <c r="R99" s="16"/>
       <c r="S99" s="16"/>
       <c r="T99" s="16"/>
@@ -15586,36 +15580,36 @@
       <c r="AA99" s="16"/>
       <c r="AB99" s="16"/>
       <c r="AC99" s="16"/>
-      <c r="AD99" s="16"/>
-    </row>
-    <row r="100" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C100" s="6" t="s">
+        <v>330</v>
+      </c>
       <c r="D100" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="F100" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G100" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H100" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J100" s="6" t="s">
         <v>317</v>
       </c>
+      <c r="K100" s="6">
+        <v>0</v>
+      </c>
       <c r="L100" s="6">
-        <v>0</v>
-      </c>
-      <c r="M100" s="6">
         <v>100</v>
       </c>
-      <c r="O100" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N100" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="16"/>
       <c r="R100" s="16"/>
       <c r="S100" s="16"/>
       <c r="T100" s="16"/>
@@ -15628,36 +15622,36 @@
       <c r="AA100" s="16"/>
       <c r="AB100" s="16"/>
       <c r="AC100" s="16"/>
-      <c r="AD100" s="16"/>
-    </row>
-    <row r="101" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C101" s="6" t="s">
+        <v>332</v>
+      </c>
       <c r="D101" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="F101" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G101" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H101" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J101" s="6" t="s">
         <v>317</v>
       </c>
+      <c r="K101" s="6">
+        <v>0</v>
+      </c>
       <c r="L101" s="6">
-        <v>0</v>
-      </c>
-      <c r="M101" s="6">
         <v>100</v>
       </c>
-      <c r="O101" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N101" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="16"/>
       <c r="R101" s="16"/>
       <c r="S101" s="16"/>
       <c r="T101" s="16"/>
@@ -15670,36 +15664,36 @@
       <c r="AA101" s="16"/>
       <c r="AB101" s="16"/>
       <c r="AC101" s="16"/>
-      <c r="AD101" s="16"/>
-    </row>
-    <row r="102" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C102" s="6" t="s">
+        <v>334</v>
+      </c>
       <c r="D102" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="F102" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G102" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H102" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J102" s="6" t="s">
         <v>317</v>
       </c>
+      <c r="K102" s="6">
+        <v>0</v>
+      </c>
       <c r="L102" s="6">
-        <v>0</v>
-      </c>
-      <c r="M102" s="6">
         <v>100</v>
       </c>
-      <c r="O102" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N102" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="16"/>
       <c r="R102" s="16"/>
       <c r="S102" s="16"/>
       <c r="T102" s="16"/>
@@ -15712,36 +15706,36 @@
       <c r="AA102" s="16"/>
       <c r="AB102" s="16"/>
       <c r="AC102" s="16"/>
-      <c r="AD102" s="16"/>
-    </row>
-    <row r="103" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C103" s="6" t="s">
+        <v>336</v>
+      </c>
       <c r="D103" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="F103" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G103" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H103" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J103" s="6" t="s">
         <v>317</v>
       </c>
+      <c r="K103" s="6">
+        <v>0</v>
+      </c>
       <c r="L103" s="6">
-        <v>0</v>
-      </c>
-      <c r="M103" s="6">
         <v>100</v>
       </c>
-      <c r="O103" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N103" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="16"/>
       <c r="R103" s="16"/>
       <c r="S103" s="16"/>
       <c r="T103" s="16"/>
@@ -15754,36 +15748,36 @@
       <c r="AA103" s="16"/>
       <c r="AB103" s="16"/>
       <c r="AC103" s="16"/>
-      <c r="AD103" s="16"/>
-    </row>
-    <row r="104" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C104" s="6" t="s">
+        <v>338</v>
+      </c>
       <c r="D104" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="F104" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G104" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H104" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J104" s="6" t="s">
         <v>317</v>
       </c>
+      <c r="K104" s="6">
+        <v>0</v>
+      </c>
       <c r="L104" s="6">
-        <v>0</v>
-      </c>
-      <c r="M104" s="6">
         <v>100</v>
       </c>
-      <c r="O104" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N104" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="16"/>
       <c r="R104" s="16"/>
       <c r="S104" s="16"/>
       <c r="T104" s="16"/>
@@ -15796,36 +15790,36 @@
       <c r="AA104" s="16"/>
       <c r="AB104" s="16"/>
       <c r="AC104" s="16"/>
-      <c r="AD104" s="16"/>
-    </row>
-    <row r="105" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C105" s="6" t="s">
+        <v>340</v>
+      </c>
       <c r="D105" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="F105" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G105" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H105" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J105" s="6" t="s">
         <v>317</v>
       </c>
+      <c r="K105" s="6">
+        <v>0</v>
+      </c>
       <c r="L105" s="6">
-        <v>0</v>
-      </c>
-      <c r="M105" s="6">
         <v>100</v>
       </c>
-      <c r="O105" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N105" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="16"/>
       <c r="R105" s="16"/>
       <c r="S105" s="16"/>
       <c r="T105" s="16"/>
@@ -15838,36 +15832,36 @@
       <c r="AA105" s="16"/>
       <c r="AB105" s="16"/>
       <c r="AC105" s="16"/>
-      <c r="AD105" s="16"/>
-    </row>
-    <row r="106" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C106" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="D106" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="F106" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G106" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H106" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J106" s="6" t="s">
         <v>317</v>
       </c>
+      <c r="K106" s="6">
+        <v>0</v>
+      </c>
       <c r="L106" s="6">
-        <v>0</v>
-      </c>
-      <c r="M106" s="6">
         <v>100</v>
       </c>
-      <c r="O106" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N106" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="16"/>
       <c r="R106" s="16"/>
       <c r="S106" s="16"/>
       <c r="T106" s="16"/>
@@ -15880,27 +15874,27 @@
       <c r="AA106" s="16"/>
       <c r="AB106" s="16"/>
       <c r="AC106" s="16"/>
-      <c r="AD106" s="16"/>
-    </row>
-    <row r="107" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C107" s="6" t="s">
+        <v>344</v>
+      </c>
       <c r="D107" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="F107" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G107" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H107" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I107" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="O107" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N107" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="16"/>
       <c r="R107" s="16"/>
       <c r="S107" s="16"/>
       <c r="T107" s="16"/>
@@ -15913,27 +15907,27 @@
       <c r="AA107" s="16"/>
       <c r="AB107" s="16"/>
       <c r="AC107" s="16"/>
-      <c r="AD107" s="16"/>
-    </row>
-    <row r="108" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C108" s="6" t="s">
+        <v>346</v>
+      </c>
       <c r="D108" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="F108" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G108" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H108" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I108" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="O108" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N108" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="16"/>
       <c r="R108" s="16"/>
       <c r="S108" s="16"/>
       <c r="T108" s="16"/>
@@ -15946,30 +15940,30 @@
       <c r="AA108" s="16"/>
       <c r="AB108" s="16"/>
       <c r="AC108" s="16"/>
-      <c r="AD108" s="16"/>
-    </row>
-    <row r="109" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C109" s="6" t="s">
+        <v>348</v>
+      </c>
       <c r="D109" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="F109" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G109" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H109" s="6" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="J109" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O109" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N109" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="16"/>
       <c r="R109" s="16"/>
       <c r="S109" s="16"/>
       <c r="T109" s="16"/>
@@ -15982,36 +15976,36 @@
       <c r="AA109" s="16"/>
       <c r="AB109" s="16"/>
       <c r="AC109" s="16"/>
-      <c r="AD109" s="16"/>
-    </row>
-    <row r="110" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C110" s="6" t="s">
+        <v>350</v>
+      </c>
       <c r="D110" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="F110" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G110" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="H110" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J110" s="6" t="s">
         <v>190</v>
       </c>
+      <c r="K110" s="6">
+        <v>-10000</v>
+      </c>
       <c r="L110" s="6">
-        <v>-10000</v>
-      </c>
-      <c r="M110" s="6">
         <v>10000</v>
       </c>
-      <c r="O110" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N110" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="16"/>
       <c r="R110" s="16"/>
       <c r="S110" s="16"/>
       <c r="T110" s="16"/>
@@ -16024,36 +16018,36 @@
       <c r="AA110" s="16"/>
       <c r="AB110" s="16"/>
       <c r="AC110" s="16"/>
-      <c r="AD110" s="16"/>
-    </row>
-    <row r="111" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C111" s="6" t="s">
+        <v>352</v>
+      </c>
       <c r="D111" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="F111" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G111" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="H111" s="6" t="s">
-        <v>170</v>
+        <v>354</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="J111" s="6" t="s">
         <v>190</v>
       </c>
+      <c r="K111" s="6">
+        <v>-10000</v>
+      </c>
       <c r="L111" s="6">
-        <v>-10000</v>
-      </c>
-      <c r="M111" s="6">
         <v>10000</v>
       </c>
-      <c r="O111" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N111" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="16"/>
       <c r="R111" s="16"/>
       <c r="S111" s="16"/>
       <c r="T111" s="16"/>
@@ -16066,33 +16060,33 @@
       <c r="AA111" s="16"/>
       <c r="AB111" s="16"/>
       <c r="AC111" s="16"/>
-      <c r="AD111" s="16"/>
-    </row>
-    <row r="112" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C112" s="6" t="s">
+        <v>355</v>
+      </c>
       <c r="D112" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="F112" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G112" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="H112" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I112" s="6" t="s">
         <v>171</v>
       </c>
+      <c r="K112" s="6">
+        <v>0</v>
+      </c>
       <c r="L112" s="6">
-        <v>0</v>
-      </c>
-      <c r="M112" s="6">
         <v>1</v>
       </c>
-      <c r="O112" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N112" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="16"/>
       <c r="R112" s="16"/>
       <c r="S112" s="16"/>
       <c r="T112" s="16"/>
@@ -16105,27 +16099,27 @@
       <c r="AA112" s="16"/>
       <c r="AB112" s="16"/>
       <c r="AC112" s="16"/>
-      <c r="AD112" s="16"/>
-    </row>
-    <row r="113" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C113" s="6" t="s">
+        <v>357</v>
+      </c>
       <c r="D113" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="F113" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="G113" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="H113" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I113" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="O113" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N113" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="16"/>
       <c r="R113" s="16"/>
       <c r="S113" s="16"/>
       <c r="T113" s="16"/>
@@ -16138,27 +16132,27 @@
       <c r="AA113" s="16"/>
       <c r="AB113" s="16"/>
       <c r="AC113" s="16"/>
-      <c r="AD113" s="16"/>
-    </row>
-    <row r="114" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C114" s="6" t="s">
+        <v>359</v>
+      </c>
       <c r="D114" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="F114" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G114" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H114" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I114" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="O114" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N114" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="17"/>
       <c r="R114" s="17"/>
       <c r="S114" s="17"/>
       <c r="T114" s="17"/>
@@ -16171,27 +16165,27 @@
       <c r="AA114" s="17"/>
       <c r="AB114" s="17"/>
       <c r="AC114" s="17"/>
-      <c r="AD114" s="17"/>
-    </row>
-    <row r="115" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C115" s="6" t="s">
+        <v>362</v>
+      </c>
       <c r="D115" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="F115" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G115" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H115" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I115" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="O115" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N115" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="17"/>
       <c r="R115" s="17"/>
       <c r="S115" s="17"/>
       <c r="T115" s="17"/>
@@ -16204,27 +16198,27 @@
       <c r="AA115" s="17"/>
       <c r="AB115" s="17"/>
       <c r="AC115" s="17"/>
-      <c r="AD115" s="17"/>
-    </row>
-    <row r="116" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C116" s="6" t="s">
+        <v>364</v>
+      </c>
       <c r="D116" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="F116" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G116" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H116" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I116" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="O116" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N116" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="17"/>
       <c r="R116" s="17"/>
       <c r="S116" s="17"/>
       <c r="T116" s="17"/>
@@ -16237,27 +16231,27 @@
       <c r="AA116" s="17"/>
       <c r="AB116" s="17"/>
       <c r="AC116" s="17"/>
-      <c r="AD116" s="17"/>
-    </row>
-    <row r="117" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C117" s="6" t="s">
+        <v>366</v>
+      </c>
       <c r="D117" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="F117" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G117" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H117" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I117" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="O117" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N117" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="17"/>
       <c r="R117" s="17"/>
       <c r="S117" s="17"/>
       <c r="T117" s="17"/>
@@ -16270,27 +16264,27 @@
       <c r="AA117" s="17"/>
       <c r="AB117" s="17"/>
       <c r="AC117" s="17"/>
-      <c r="AD117" s="17"/>
-    </row>
-    <row r="118" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C118" s="6" t="s">
+        <v>368</v>
+      </c>
       <c r="D118" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="F118" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G118" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H118" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I118" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="O118" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N118" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="17"/>
       <c r="R118" s="17"/>
       <c r="S118" s="17"/>
       <c r="T118" s="17"/>
@@ -16303,30 +16297,30 @@
       <c r="AA118" s="17"/>
       <c r="AB118" s="17"/>
       <c r="AC118" s="17"/>
-      <c r="AD118" s="17"/>
-    </row>
-    <row r="119" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C119" s="6" t="s">
+        <v>370</v>
+      </c>
       <c r="D119" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="F119" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G119" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H119" s="6" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="J119" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="O119" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N119" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="17"/>
       <c r="R119" s="17"/>
       <c r="S119" s="17"/>
       <c r="T119" s="17"/>
@@ -16339,30 +16333,30 @@
       <c r="AA119" s="17"/>
       <c r="AB119" s="17"/>
       <c r="AC119" s="17"/>
-      <c r="AD119" s="17"/>
-    </row>
-    <row r="120" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C120" s="6" t="s">
+        <v>373</v>
+      </c>
       <c r="D120" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="F120" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G120" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H120" s="6" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="J120" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="O120" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N120" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="17"/>
       <c r="R120" s="17"/>
       <c r="S120" s="17"/>
       <c r="T120" s="17"/>
@@ -16375,27 +16369,27 @@
       <c r="AA120" s="17"/>
       <c r="AB120" s="17"/>
       <c r="AC120" s="17"/>
-      <c r="AD120" s="17"/>
-    </row>
-    <row r="121" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C121" s="6" t="s">
+        <v>376</v>
+      </c>
       <c r="D121" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="F121" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G121" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H121" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I121" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="O121" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N121" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="17"/>
       <c r="R121" s="17"/>
       <c r="S121" s="17"/>
       <c r="T121" s="17"/>
@@ -16408,30 +16402,30 @@
       <c r="AA121" s="17"/>
       <c r="AB121" s="17"/>
       <c r="AC121" s="17"/>
-      <c r="AD121" s="17"/>
-    </row>
-    <row r="122" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C122" s="6" t="s">
+        <v>378</v>
+      </c>
       <c r="D122" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="F122" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G122" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H122" s="6" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="J122" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="O122" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N122" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q122" s="17"/>
       <c r="R122" s="17"/>
       <c r="S122" s="17"/>
       <c r="T122" s="17"/>
@@ -16444,27 +16438,27 @@
       <c r="AA122" s="17"/>
       <c r="AB122" s="17"/>
       <c r="AC122" s="17"/>
-      <c r="AD122" s="17"/>
-    </row>
-    <row r="123" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C123" s="6" t="s">
+        <v>380</v>
+      </c>
       <c r="D123" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="F123" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G123" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H123" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I123" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="O123" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N123" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q123" s="17"/>
       <c r="R123" s="17"/>
       <c r="S123" s="17"/>
       <c r="T123" s="17"/>
@@ -16477,36 +16471,36 @@
       <c r="AA123" s="17"/>
       <c r="AB123" s="17"/>
       <c r="AC123" s="17"/>
-      <c r="AD123" s="17"/>
-    </row>
-    <row r="124" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C124" s="6" t="s">
+        <v>382</v>
+      </c>
       <c r="D124" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="F124" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G124" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="H124" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J124" s="6" t="s">
         <v>115</v>
       </c>
+      <c r="K124" s="6">
+        <v>0</v>
+      </c>
       <c r="L124" s="6">
-        <v>0</v>
-      </c>
-      <c r="M124" s="6">
         <v>100</v>
       </c>
-      <c r="O124" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N124" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="17"/>
       <c r="R124" s="17"/>
       <c r="S124" s="17"/>
       <c r="T124" s="17"/>
@@ -16519,36 +16513,36 @@
       <c r="AA124" s="17"/>
       <c r="AB124" s="17"/>
       <c r="AC124" s="17"/>
-      <c r="AD124" s="17"/>
-    </row>
-    <row r="125" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C125" s="6" t="s">
+        <v>384</v>
+      </c>
       <c r="D125" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="F125" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G125" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="H125" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J125" s="6" t="s">
         <v>115</v>
       </c>
+      <c r="K125" s="6">
+        <v>0</v>
+      </c>
       <c r="L125" s="6">
-        <v>0</v>
-      </c>
-      <c r="M125" s="6">
         <v>100</v>
       </c>
-      <c r="O125" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N125" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q125" s="17"/>
       <c r="R125" s="17"/>
       <c r="S125" s="17"/>
       <c r="T125" s="17"/>
@@ -16561,36 +16555,36 @@
       <c r="AA125" s="17"/>
       <c r="AB125" s="17"/>
       <c r="AC125" s="17"/>
-      <c r="AD125" s="17"/>
-    </row>
-    <row r="126" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C126" s="6" t="s">
+        <v>386</v>
+      </c>
       <c r="D126" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="F126" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G126" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="H126" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J126" s="6" t="s">
         <v>115</v>
       </c>
+      <c r="K126" s="6">
+        <v>0</v>
+      </c>
       <c r="L126" s="6">
-        <v>0</v>
-      </c>
-      <c r="M126" s="6">
         <v>100</v>
       </c>
-      <c r="O126" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N126" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="17"/>
       <c r="R126" s="17"/>
       <c r="S126" s="17"/>
       <c r="T126" s="17"/>
@@ -16603,36 +16597,36 @@
       <c r="AA126" s="17"/>
       <c r="AB126" s="17"/>
       <c r="AC126" s="17"/>
-      <c r="AD126" s="17"/>
-    </row>
-    <row r="127" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C127" s="6" t="s">
+        <v>388</v>
+      </c>
       <c r="D127" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="F127" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G127" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="H127" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J127" s="6" t="s">
         <v>115</v>
       </c>
+      <c r="K127" s="6">
+        <v>0</v>
+      </c>
       <c r="L127" s="6">
-        <v>0</v>
-      </c>
-      <c r="M127" s="6">
         <v>100</v>
       </c>
-      <c r="O127" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N127" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q127" s="17"/>
       <c r="R127" s="17"/>
       <c r="S127" s="17"/>
       <c r="T127" s="17"/>
@@ -16645,36 +16639,36 @@
       <c r="AA127" s="17"/>
       <c r="AB127" s="17"/>
       <c r="AC127" s="17"/>
-      <c r="AD127" s="17"/>
-    </row>
-    <row r="128" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C128" s="6" t="s">
+        <v>390</v>
+      </c>
       <c r="D128" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="F128" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G128" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="H128" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J128" s="6" t="s">
         <v>115</v>
       </c>
+      <c r="K128" s="6">
+        <v>0</v>
+      </c>
       <c r="L128" s="6">
-        <v>0</v>
-      </c>
-      <c r="M128" s="6">
         <v>100</v>
       </c>
-      <c r="O128" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N128" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="17"/>
       <c r="R128" s="17"/>
       <c r="S128" s="17"/>
       <c r="T128" s="17"/>
@@ -16687,36 +16681,36 @@
       <c r="AA128" s="17"/>
       <c r="AB128" s="17"/>
       <c r="AC128" s="17"/>
-      <c r="AD128" s="17"/>
-    </row>
-    <row r="129" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C129" s="6" t="s">
+        <v>392</v>
+      </c>
       <c r="D129" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="F129" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G129" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="H129" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J129" s="6" t="s">
         <v>187</v>
       </c>
+      <c r="K129" s="6">
+        <v>0</v>
+      </c>
       <c r="L129" s="6">
-        <v>0</v>
-      </c>
-      <c r="M129" s="6">
         <v>100</v>
       </c>
-      <c r="O129" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N129" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q129" s="17"/>
       <c r="R129" s="17"/>
       <c r="S129" s="17"/>
       <c r="T129" s="17"/>
@@ -16729,36 +16723,36 @@
       <c r="AA129" s="17"/>
       <c r="AB129" s="17"/>
       <c r="AC129" s="17"/>
-      <c r="AD129" s="17"/>
-    </row>
-    <row r="130" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C130" s="6" t="s">
+        <v>394</v>
+      </c>
       <c r="D130" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="F130" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G130" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="H130" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J130" s="6" t="s">
         <v>190</v>
       </c>
+      <c r="K130" s="6">
+        <v>-30</v>
+      </c>
       <c r="L130" s="6">
-        <v>-30</v>
-      </c>
-      <c r="M130" s="6">
         <v>30</v>
       </c>
-      <c r="O130" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N130" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q130" s="17"/>
       <c r="R130" s="17"/>
       <c r="S130" s="17"/>
       <c r="T130" s="17"/>
@@ -16771,36 +16765,36 @@
       <c r="AA130" s="17"/>
       <c r="AB130" s="17"/>
       <c r="AC130" s="17"/>
-      <c r="AD130" s="17"/>
-    </row>
-    <row r="131" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C131" s="6" t="s">
+        <v>396</v>
+      </c>
       <c r="D131" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="F131" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G131" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="H131" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J131" s="6" t="s">
         <v>190</v>
       </c>
+      <c r="K131" s="6">
+        <v>-40</v>
+      </c>
       <c r="L131" s="6">
-        <v>-40</v>
-      </c>
-      <c r="M131" s="6">
-        <v>0</v>
-      </c>
-      <c r="O131" s="6" t="b">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N131" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q131" s="17"/>
       <c r="R131" s="17"/>
       <c r="S131" s="17"/>
       <c r="T131" s="17"/>
@@ -16813,27 +16807,27 @@
       <c r="AA131" s="17"/>
       <c r="AB131" s="17"/>
       <c r="AC131" s="17"/>
-      <c r="AD131" s="17"/>
-    </row>
-    <row r="132" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C132" s="6" t="s">
+        <v>344</v>
+      </c>
       <c r="D132" s="6" t="s">
-        <v>344</v>
+        <v>398</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="F132" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G132" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H132" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I132" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="O132" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N132" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q132" s="17"/>
       <c r="R132" s="17"/>
       <c r="S132" s="17"/>
       <c r="T132" s="17"/>
@@ -16846,27 +16840,27 @@
       <c r="AA132" s="17"/>
       <c r="AB132" s="17"/>
       <c r="AC132" s="17"/>
-      <c r="AD132" s="17"/>
-    </row>
-    <row r="133" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C133" s="6" t="s">
+        <v>346</v>
+      </c>
       <c r="D133" s="6" t="s">
-        <v>346</v>
+        <v>399</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="F133" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G133" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H133" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I133" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="O133" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N133" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q133" s="17"/>
       <c r="R133" s="17"/>
       <c r="S133" s="17"/>
       <c r="T133" s="17"/>
@@ -16879,30 +16873,30 @@
       <c r="AA133" s="17"/>
       <c r="AB133" s="17"/>
       <c r="AC133" s="17"/>
-      <c r="AD133" s="17"/>
-    </row>
-    <row r="134" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C134" s="6" t="s">
+        <v>348</v>
+      </c>
       <c r="D134" s="6" t="s">
-        <v>348</v>
+        <v>400</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="F134" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G134" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H134" s="6" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="J134" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O134" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N134" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q134" s="17"/>
       <c r="R134" s="17"/>
       <c r="S134" s="17"/>
       <c r="T134" s="17"/>
@@ -16915,36 +16909,36 @@
       <c r="AA134" s="17"/>
       <c r="AB134" s="17"/>
       <c r="AC134" s="17"/>
-      <c r="AD134" s="17"/>
-    </row>
-    <row r="135" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C135" s="6" t="s">
+        <v>401</v>
+      </c>
       <c r="D135" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="F135" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G135" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="H135" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J135" s="6" t="s">
         <v>190</v>
       </c>
+      <c r="K135" s="6">
+        <v>-10000</v>
+      </c>
       <c r="L135" s="6">
-        <v>-10000</v>
-      </c>
-      <c r="M135" s="6">
         <v>10000</v>
       </c>
-      <c r="O135" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N135" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q135" s="17"/>
       <c r="R135" s="17"/>
       <c r="S135" s="17"/>
       <c r="T135" s="17"/>
@@ -16957,36 +16951,36 @@
       <c r="AA135" s="17"/>
       <c r="AB135" s="17"/>
       <c r="AC135" s="17"/>
-      <c r="AD135" s="17"/>
-    </row>
-    <row r="136" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C136" s="6" t="s">
+        <v>403</v>
+      </c>
       <c r="D136" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="F136" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G136" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="H136" s="6" t="s">
-        <v>170</v>
+        <v>354</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="J136" s="6" t="s">
         <v>190</v>
       </c>
+      <c r="K136" s="6">
+        <v>-10000</v>
+      </c>
       <c r="L136" s="6">
-        <v>-10000</v>
-      </c>
-      <c r="M136" s="6">
         <v>10000</v>
       </c>
-      <c r="O136" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N136" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q136" s="17"/>
       <c r="R136" s="17"/>
       <c r="S136" s="17"/>
       <c r="T136" s="17"/>
@@ -16999,33 +16993,33 @@
       <c r="AA136" s="17"/>
       <c r="AB136" s="17"/>
       <c r="AC136" s="17"/>
-      <c r="AD136" s="17"/>
-    </row>
-    <row r="137" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C137" s="6" t="s">
+        <v>405</v>
+      </c>
       <c r="D137" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="F137" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G137" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="H137" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I137" s="6" t="s">
         <v>171</v>
       </c>
+      <c r="K137" s="6">
+        <v>0</v>
+      </c>
       <c r="L137" s="6">
-        <v>0</v>
-      </c>
-      <c r="M137" s="6">
         <v>1</v>
       </c>
-      <c r="O137" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N137" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q137" s="17"/>
       <c r="R137" s="17"/>
       <c r="S137" s="17"/>
       <c r="T137" s="17"/>
@@ -17038,27 +17032,27 @@
       <c r="AA137" s="17"/>
       <c r="AB137" s="17"/>
       <c r="AC137" s="17"/>
-      <c r="AD137" s="17"/>
-    </row>
-    <row r="138" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C138" s="6" t="s">
+        <v>407</v>
+      </c>
       <c r="D138" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="F138" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G138" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="H138" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I138" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="O138" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N138" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q138" s="17"/>
       <c r="R138" s="17"/>
       <c r="S138" s="17"/>
       <c r="T138" s="17"/>
@@ -17071,36 +17065,36 @@
       <c r="AA138" s="17"/>
       <c r="AB138" s="17"/>
       <c r="AC138" s="17"/>
-      <c r="AD138" s="17"/>
-    </row>
-    <row r="139" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C139" s="6" t="s">
+        <v>315</v>
+      </c>
       <c r="D139" s="6" t="s">
-        <v>315</v>
+        <v>409</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="F139" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G139" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H139" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J139" s="6" t="s">
         <v>317</v>
       </c>
+      <c r="K139" s="6">
+        <v>0</v>
+      </c>
       <c r="L139" s="6">
-        <v>0</v>
-      </c>
-      <c r="M139" s="6">
         <v>100</v>
       </c>
-      <c r="O139" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N139" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q139" s="17"/>
       <c r="R139" s="17"/>
       <c r="S139" s="17"/>
       <c r="T139" s="17"/>
@@ -17113,36 +17107,36 @@
       <c r="AA139" s="17"/>
       <c r="AB139" s="17"/>
       <c r="AC139" s="17"/>
-      <c r="AD139" s="17"/>
-    </row>
-    <row r="140" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C140" s="6" t="s">
+        <v>318</v>
+      </c>
       <c r="D140" s="6" t="s">
-        <v>318</v>
+        <v>410</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="F140" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G140" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H140" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I140" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J140" s="6" t="s">
         <v>317</v>
       </c>
+      <c r="K140" s="6">
+        <v>0</v>
+      </c>
       <c r="L140" s="6">
-        <v>0</v>
-      </c>
-      <c r="M140" s="6">
         <v>100</v>
       </c>
-      <c r="O140" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N140" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q140" s="17"/>
       <c r="R140" s="17"/>
       <c r="S140" s="17"/>
       <c r="T140" s="17"/>
@@ -17155,36 +17149,36 @@
       <c r="AA140" s="17"/>
       <c r="AB140" s="17"/>
       <c r="AC140" s="17"/>
-      <c r="AD140" s="17"/>
-    </row>
-    <row r="141" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C141" s="6" t="s">
+        <v>320</v>
+      </c>
       <c r="D141" s="6" t="s">
-        <v>320</v>
+        <v>411</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="F141" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G141" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H141" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J141" s="6" t="s">
         <v>317</v>
       </c>
+      <c r="K141" s="6">
+        <v>0</v>
+      </c>
       <c r="L141" s="6">
-        <v>0</v>
-      </c>
-      <c r="M141" s="6">
         <v>100</v>
       </c>
-      <c r="O141" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N141" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q141" s="17"/>
       <c r="R141" s="17"/>
       <c r="S141" s="17"/>
       <c r="T141" s="17"/>
@@ -17197,36 +17191,36 @@
       <c r="AA141" s="17"/>
       <c r="AB141" s="17"/>
       <c r="AC141" s="17"/>
-      <c r="AD141" s="17"/>
-    </row>
-    <row r="142" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C142" s="6" t="s">
+        <v>412</v>
+      </c>
       <c r="D142" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="F142" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G142" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H142" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J142" s="6" t="s">
         <v>317</v>
       </c>
+      <c r="K142" s="6">
+        <v>0</v>
+      </c>
       <c r="L142" s="6">
-        <v>0</v>
-      </c>
-      <c r="M142" s="6">
         <v>100</v>
       </c>
-      <c r="O142" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N142" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q142" s="17"/>
       <c r="R142" s="17"/>
       <c r="S142" s="17"/>
       <c r="T142" s="17"/>
@@ -17239,36 +17233,36 @@
       <c r="AA142" s="17"/>
       <c r="AB142" s="17"/>
       <c r="AC142" s="17"/>
-      <c r="AD142" s="17"/>
-    </row>
-    <row r="143" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C143" s="6" t="s">
+        <v>324</v>
+      </c>
       <c r="D143" s="6" t="s">
-        <v>324</v>
+        <v>414</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="F143" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G143" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H143" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I143" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J143" s="6" t="s">
         <v>317</v>
       </c>
+      <c r="K143" s="6">
+        <v>0</v>
+      </c>
       <c r="L143" s="6">
-        <v>0</v>
-      </c>
-      <c r="M143" s="6">
         <v>100</v>
       </c>
-      <c r="O143" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N143" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q143" s="17"/>
       <c r="R143" s="17"/>
       <c r="S143" s="17"/>
       <c r="T143" s="17"/>
@@ -17281,36 +17275,36 @@
       <c r="AA143" s="17"/>
       <c r="AB143" s="17"/>
       <c r="AC143" s="17"/>
-      <c r="AD143" s="17"/>
-    </row>
-    <row r="144" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C144" s="6" t="s">
+        <v>326</v>
+      </c>
       <c r="D144" s="6" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="F144" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G144" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H144" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J144" s="6" t="s">
         <v>317</v>
       </c>
+      <c r="K144" s="6">
+        <v>0</v>
+      </c>
       <c r="L144" s="6">
-        <v>0</v>
-      </c>
-      <c r="M144" s="6">
         <v>100</v>
       </c>
-      <c r="O144" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N144" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q144" s="17"/>
       <c r="R144" s="17"/>
       <c r="S144" s="17"/>
       <c r="T144" s="17"/>
@@ -17323,36 +17317,36 @@
       <c r="AA144" s="17"/>
       <c r="AB144" s="17"/>
       <c r="AC144" s="17"/>
-      <c r="AD144" s="17"/>
-    </row>
-    <row r="145" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C145" s="6" t="s">
+        <v>328</v>
+      </c>
       <c r="D145" s="6" t="s">
-        <v>328</v>
+        <v>416</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="F145" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G145" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H145" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J145" s="6" t="s">
         <v>317</v>
       </c>
+      <c r="K145" s="6">
+        <v>0</v>
+      </c>
       <c r="L145" s="6">
-        <v>0</v>
-      </c>
-      <c r="M145" s="6">
         <v>100</v>
       </c>
-      <c r="O145" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N145" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q145" s="17"/>
       <c r="R145" s="17"/>
       <c r="S145" s="17"/>
       <c r="T145" s="17"/>
@@ -17365,36 +17359,36 @@
       <c r="AA145" s="17"/>
       <c r="AB145" s="17"/>
       <c r="AC145" s="17"/>
-      <c r="AD145" s="17"/>
-    </row>
-    <row r="146" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C146" s="6" t="s">
+        <v>330</v>
+      </c>
       <c r="D146" s="6" t="s">
-        <v>330</v>
+        <v>417</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="F146" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G146" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H146" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J146" s="6" t="s">
         <v>317</v>
       </c>
+      <c r="K146" s="6">
+        <v>0</v>
+      </c>
       <c r="L146" s="6">
-        <v>0</v>
-      </c>
-      <c r="M146" s="6">
         <v>100</v>
       </c>
-      <c r="O146" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N146" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q146" s="17"/>
       <c r="R146" s="17"/>
       <c r="S146" s="17"/>
       <c r="T146" s="17"/>
@@ -17407,36 +17401,36 @@
       <c r="AA146" s="17"/>
       <c r="AB146" s="17"/>
       <c r="AC146" s="17"/>
-      <c r="AD146" s="17"/>
-    </row>
-    <row r="147" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C147" s="6" t="s">
+        <v>332</v>
+      </c>
       <c r="D147" s="6" t="s">
-        <v>332</v>
+        <v>418</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="F147" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G147" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H147" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I147" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J147" s="6" t="s">
         <v>317</v>
       </c>
+      <c r="K147" s="6">
+        <v>0</v>
+      </c>
       <c r="L147" s="6">
-        <v>0</v>
-      </c>
-      <c r="M147" s="6">
         <v>100</v>
       </c>
-      <c r="O147" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N147" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q147" s="17"/>
       <c r="R147" s="17"/>
       <c r="S147" s="17"/>
       <c r="T147" s="17"/>
@@ -17449,36 +17443,36 @@
       <c r="AA147" s="17"/>
       <c r="AB147" s="17"/>
       <c r="AC147" s="17"/>
-      <c r="AD147" s="17"/>
-    </row>
-    <row r="148" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C148" s="6" t="s">
+        <v>334</v>
+      </c>
       <c r="D148" s="6" t="s">
-        <v>334</v>
+        <v>419</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="F148" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G148" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H148" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J148" s="6" t="s">
         <v>317</v>
       </c>
+      <c r="K148" s="6">
+        <v>0</v>
+      </c>
       <c r="L148" s="6">
-        <v>0</v>
-      </c>
-      <c r="M148" s="6">
         <v>100</v>
       </c>
-      <c r="O148" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N148" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q148" s="17"/>
       <c r="R148" s="17"/>
       <c r="S148" s="17"/>
       <c r="T148" s="17"/>
@@ -17491,36 +17485,36 @@
       <c r="AA148" s="17"/>
       <c r="AB148" s="17"/>
       <c r="AC148" s="17"/>
-      <c r="AD148" s="17"/>
-    </row>
-    <row r="149" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C149" s="6" t="s">
+        <v>336</v>
+      </c>
       <c r="D149" s="6" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="F149" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G149" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H149" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J149" s="6" t="s">
         <v>317</v>
       </c>
+      <c r="K149" s="6">
+        <v>0</v>
+      </c>
       <c r="L149" s="6">
-        <v>0</v>
-      </c>
-      <c r="M149" s="6">
         <v>100</v>
       </c>
-      <c r="O149" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N149" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q149" s="17"/>
       <c r="R149" s="17"/>
       <c r="S149" s="17"/>
       <c r="T149" s="17"/>
@@ -17533,36 +17527,36 @@
       <c r="AA149" s="17"/>
       <c r="AB149" s="17"/>
       <c r="AC149" s="17"/>
-      <c r="AD149" s="17"/>
-    </row>
-    <row r="150" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C150" s="6" t="s">
+        <v>338</v>
+      </c>
       <c r="D150" s="6" t="s">
-        <v>338</v>
+        <v>421</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="F150" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G150" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H150" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J150" s="6" t="s">
         <v>317</v>
       </c>
+      <c r="K150" s="6">
+        <v>0</v>
+      </c>
       <c r="L150" s="6">
-        <v>0</v>
-      </c>
-      <c r="M150" s="6">
         <v>100</v>
       </c>
-      <c r="O150" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N150" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q150" s="17"/>
       <c r="R150" s="17"/>
       <c r="S150" s="17"/>
       <c r="T150" s="17"/>
@@ -17575,36 +17569,36 @@
       <c r="AA150" s="17"/>
       <c r="AB150" s="17"/>
       <c r="AC150" s="17"/>
-      <c r="AD150" s="17"/>
-    </row>
-    <row r="151" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C151" s="6" t="s">
+        <v>340</v>
+      </c>
       <c r="D151" s="6" t="s">
-        <v>340</v>
+        <v>422</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="F151" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G151" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H151" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J151" s="6" t="s">
         <v>317</v>
       </c>
+      <c r="K151" s="6">
+        <v>0</v>
+      </c>
       <c r="L151" s="6">
-        <v>0</v>
-      </c>
-      <c r="M151" s="6">
         <v>100</v>
       </c>
-      <c r="O151" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N151" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q151" s="17"/>
       <c r="R151" s="17"/>
       <c r="S151" s="17"/>
       <c r="T151" s="17"/>
@@ -17617,36 +17611,36 @@
       <c r="AA151" s="17"/>
       <c r="AB151" s="17"/>
       <c r="AC151" s="17"/>
-      <c r="AD151" s="17"/>
-    </row>
-    <row r="152" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C152" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="D152" s="6" t="s">
-        <v>342</v>
+        <v>423</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="F152" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="G152" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H152" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I152" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J152" s="6" t="s">
         <v>317</v>
       </c>
+      <c r="K152" s="6">
+        <v>0</v>
+      </c>
       <c r="L152" s="6">
-        <v>0</v>
-      </c>
-      <c r="M152" s="6">
         <v>100</v>
       </c>
-      <c r="O152" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N152" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q152" s="17"/>
       <c r="R152" s="17"/>
       <c r="S152" s="17"/>
       <c r="T152" s="17"/>
@@ -17659,16 +17653,15 @@
       <c r="AA152" s="17"/>
       <c r="AB152" s="17"/>
       <c r="AC152" s="17"/>
-      <c r="AD152" s="17"/>
-    </row>
-    <row r="153" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="153" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18527,73 +18520,73 @@
           <x14:formula1>
             <xm:f>Unit_dropdowns!$C$2:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B26:C32</xm:sqref>
+          <xm:sqref>B26:B32</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Unit_dropdowns!$F$2:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B37:C38</xm:sqref>
+          <xm:sqref>B37:B38</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>Unit_dropdowns!$P$2:$P$11</xm:f>
           </x14:formula1>
-          <xm:sqref>B114:C114</xm:sqref>
+          <xm:sqref>B114</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>Unit_dropdowns!$I$2:$I$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B40:C41</xm:sqref>
+          <xm:sqref>B40:B41</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>Unit_dropdowns!$G$2:$G$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B43:C46</xm:sqref>
+          <xm:sqref>B43:B46</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>Unit_dropdowns!$R$2:$R$11</xm:f>
           </x14:formula1>
-          <xm:sqref>B116:C116</xm:sqref>
+          <xm:sqref>B116</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>Unit_dropdowns!$C$2:$C$13</xm:f>
           </x14:formula1>
-          <xm:sqref>B50:C61 B76:C78 B80:C82 B84:C87 B89:C91 B94:C107 B124:C128 B139:C152</xm:sqref>
+          <xm:sqref>B50:B61 B76:B78 B80:B82 B84:B87 B89:B91 B94:B107 B124:B128 B139:B152</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
             <xm:f>Unit_dropdowns!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:C7</xm:sqref>
+          <xm:sqref>B2:B7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
             <xm:f>Unit_dropdowns!$E$2:$E$7</xm:f>
           </x14:formula1>
-          <xm:sqref>B24:C25 B47:C47</xm:sqref>
+          <xm:sqref>B24:B25 B47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
           <x14:formula1>
             <xm:f>Unit_dropdowns!$O$2:$O$8</xm:f>
           </x14:formula1>
-          <xm:sqref>A65:C65</xm:sqref>
+          <xm:sqref>A65:B65</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
           <x14:formula1>
             <xm:f>Unit_dropdowns!$Q$2:$Q$11</xm:f>
           </x14:formula1>
-          <xm:sqref>B115:C115</xm:sqref>
+          <xm:sqref>B115</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
           <x14:formula1>
             <xm:f>Unit_dropdowns!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>B8:C13</xm:sqref>
+          <xm:sqref>B8:B13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>

--- a/Data/GeoMicro/IGSN/IGSN_Key_V3.xlsx
+++ b/Data/GeoMicro/IGSN/IGSN_Key_V3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\EDaH\Data\GeoMicro\IGSN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A760D2C8-BC22-45FB-A243-E5170B7E40A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F4893A-C7BF-4ADD-8E5E-3F1D51EE4857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Location_data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="664">
   <si>
     <t>var</t>
   </si>
@@ -2512,7 +2512,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3227,6 +3227,9 @@
       </c>
       <c r="D13" s="6" t="s">
         <v>660</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="N13" s="19"/>
       <c r="P13" s="13"/>
